--- a/docs/odh/obf-Coverage.xlsx
+++ b/docs/odh/obf-Coverage.xlsx
@@ -448,7 +448,7 @@
     <t>Coverage.policyHolder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>Coverage.subscriber</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -514,7 +514,7 @@
     <t>Coverage.beneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -609,7 +609,7 @@
     <t>Coverage.payor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/odh/StructureDefinition/obf-Organization|http://hl7.org/fhir/us/odh/StructureDefinition/obf-Patient|http://hl7.org/fhir/us/odh/StructureDefinition/obf-RelatedPerson)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|RelatedPerson)
 </t>
   </si>
   <si>
